--- a/PCAstatic/PCAstatic_predicted_factors_matrix_8.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-4.318051551994309</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.929360681536365</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.532313631073649</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-3.135860053643603</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.747476147732929</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2.373279652151741</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.018141234898248</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.68579542334738</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.378951427750599</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.099403628733842</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.8481409858412803</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6254543034776772</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.4310401308494863</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.264100057457985</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.1234342664272169</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.007528390491855504</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.08536705415302365</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.157165132814065</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2098790906385217</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2455670993236595</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2662849797864858</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2740465770574152</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.2707913481400902</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2583586409339619</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.2382802642084712</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.212257601837397</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.1817787963830594</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1481672939512994</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.1125904895575238</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.07606211066499792</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03939442203411706</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.00335621232222854</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.03144594462053824</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.06453455805811192</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.09554638538709027</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.1242107848705523</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.1503626079212002</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.1739087388960693</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.1948252250277661</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2131455589636119</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2289500394314419</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2423561315385709</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2535097117616898</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-1.116610034833656</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.070376811187456</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.012876699651573</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.9472507553514173</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.8761665201043816</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.8018931749232353</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7263628630287587</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.6512149352086115</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.577827240877972</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.5073387473204879</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.4406672053780859</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3785246862308936</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.3214328859864486</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.2697392549093932</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.2236343289482051</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.1831701527149531</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.1482793821567759</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1187945159173099</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.09446668852703906</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.07498352465125047</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.0599856639981304</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.04908169130453319</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.0418613244687597</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.03790681447728944</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.03669783586942839</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.03796319307145419</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.04132664965516152</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.04640689766387236</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.05285141762851479</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.06033765205049509</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.06851373666138788</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.07718758435540878</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.08613660451915919</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.09515937571581445</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1040859502915188</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1127178584754456</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1209984091894515</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1288419822934175</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1361825756423118</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1429745397937682</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1491904757641039</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1548186906659731</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.159860784330803</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.09674446195986122</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1491213063605719</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1835382236588497</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2023025022586955</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2075684186499481</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2013286306277308</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1854186989968589</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1615255303657719</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1311954059458741</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.09583990257668132</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0567395589684785</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01504592418773307</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.02821708511801373</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.07215161339857819</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.115983370205178</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1590577667346853</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.2008345126643442</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.2408807303499619</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.2788628097585728</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.3145373261452311</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.3477413805278773</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.3783827139657993</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.4064299060689249</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.4319029105828001</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.4546723846492158</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.4750035424947112</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.4930212177038084</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.5088743492872201</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.5227252022274019</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.5347440831374644</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.5448516138694154</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.553471930105595</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.5607758966914448</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.5669294880015745</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.5720899741285271</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.5761130492713507</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.5794316377591449</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.5821695659105864</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.5844384366910323</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.5863372365326501</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.5879524884506622</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.5893587064849041</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.590619012324911</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.05702561178808249</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2130003646535691</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3265958924765763</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4048695566233551</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4540233953566039</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4794736055194369</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4859272526581957</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4774579328689797</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4575759416966656</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4292908594893724</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3951662142436729</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3573669426112945</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3177008765747469</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2776555947485684</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2384318403999724</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2009744442417656</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1660013889967496</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1340313744331737</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.1054100192723803</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.08033468243784939</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0588777982682815</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.04100858753933546</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.02661301361602851</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.0155118858028763</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.007489531767719338</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.002290785721304928</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.0003764844835199089</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.0008147062191362379</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.0006715260656978608</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.003782880731560621</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.008234720167773074</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.01374988428109895</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0200736766869396</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.02697420752491521</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.03424328425052337</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.04166500572839377</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0491082862798097</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.05643727772897181</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.06353986153906029</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.07032566095836577</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0767244191189919</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.08268421945886402</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.08816960248594385</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.09998219351805143</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1477460887222012</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1887161581655078</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.2228710584871371</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.2503980086078984</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.2716122040128797</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.2869016723126616</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.2966955141327181</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.3014483885194502</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.3016343999844723</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.2977449145358986</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.290286569363772</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.2797774083951983</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.26674045069663</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.2516949854705119</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.235146473727853</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.2175761665831567</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.1994315037640408</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.1811181299897056</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.1629940556732629</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.1453661697032932</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.1284890394064908</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.1125657344454584</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.09775029414643359</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.08385064424938826</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.07130913993615019</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.06014868527541397</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.05036199699217193</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.04191516655405288</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.03475362171847666</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.02870326804957334</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.02381722023117209</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.01999768113284317</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.01714254005941932</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.01514762100592914</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.01387688887256633</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.01327061934335513</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.01322851763442562</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.01365617977728336</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.0144659079496639</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.01557736539307804</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.01691792274878953</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.01842278333229771</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>0.02834273243367419</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.006845202459613774</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.03841439784992696</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.06614615646104421</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.09002653674285506</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.1101540839390822</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.1266796120675499</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.1397721016691001</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1496048284459864</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.1563547265023557</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.1602087086112385</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1613719197073636</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.1600743362445074</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.1565735845058424</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.1511532130335864</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.1441167819178473</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.1357789057990083</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.1264547544000596</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.1164495072874693</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.1060489813133516</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.09551223217954019</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.085066496806464</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.07490447517819451</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.0651836906986604</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.05582383644761786</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.0471733822376429</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.03928351143946879</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.03218575558198399</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.02589031836273812</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.02038906161449075</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.01558973840629764</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.01155149614801188</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.008223624797489205</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.005552273314789827</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.003479949240517213</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.001926445104975004</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.0008603166429013149</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.0002177793424691509</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>6.081998393432306e-05</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>3.205478186539025e-05</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.0002510743342560798</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.0007395707936209864</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.001388730517928261</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.05280664129435791</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1341623096972855</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2057144986827232</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2667340144776241</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.3169249879628689</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.35637345275581</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.3854846878181059</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.404915600477188</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.4155075248816151</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.4182233437657008</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.414091402768885</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.4041576740643155</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.3894469267726562</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.3709330993916509</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.3495185347439356</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.3260212253225421</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.3011687934695436</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.2755976769824314</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.2498559496747276</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.224408363241201</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1996424889188393</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1758751825423215</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1533589208364515</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1322878122015323</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1123893899459232</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.09427420416064965</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.07798093340263408</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.06351147812852648</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.05083615060451311</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.03989835584395198</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.03048163872822935</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.02267262628350122</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.01635233598908659</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.01139333116440098</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.007663540322231915</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.004992798746938149</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.003297396817749933</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.002443936139296022</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.002304819901418925</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.002760228276758319</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.003699081216973195</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.005019728885710137</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.00663034938345259</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -584,6 +1592,132 @@
       </c>
       <c r="E9" t="n">
         <v>0.02061819016693474</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01777664225321285</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01525957129280366</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01303202957970324</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01106712252415245</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.009342287431739114</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.007837719967894478</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.00653521967328697</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.005417560337543896</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.004468187261740079</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.003671123735552781</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.003010994832663567</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.002473103313429621</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.00204351593346322</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.001709137014478869</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.001457759273275815</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.001278090198311681</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.001159756759126853</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.001093293071904878</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.001070115831121479</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.001082491630944668</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.001123499280624842</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.001186989199505359</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.001267541135538486</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.001369190848707716</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.001466577934907797</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.00156922112508632</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.001674233770259275</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.00177909352216931</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.001881705138942317</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.001982230106031735</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.002073623359586383</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.002159166072808266</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.002238366083592298</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.002310805865576241</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.002374704378026804</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.002432091172137285</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.002482514051755165</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.002526498696725965</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.00256437378878365</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.002596533782091028</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.002623425724333337</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.002645528939784514</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_8.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_8.xlsx
@@ -443,66 +443,66 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5.529747460660961</v>
+        <v>-1.457073490363895</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.321959396238458</v>
+        <v>-1.247247429609309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.183289001986386</v>
+        <v>-0.5353822030659443</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.13979122323428</v>
+        <v>-0.6694704817216622</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3340778504038055</v>
+        <v>-0.8498925758554317</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1931114551587937</v>
+        <v>-0.6843678232413823</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.172690892567192</v>
+        <v>-0.7319290046682726</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7495860640514765</v>
+        <v>-0.6349686399606124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1453421444086458</v>
+        <v>0.8083947436854791</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07542637032112778</v>
+        <v>0.6068203705027657</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2029934515014506</v>
+        <v>-0.07452177043058129</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1493150641220289</v>
+        <v>0.0504749455727569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3463219321921005</v>
+        <v>0.7880402694620865</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2362392370400808</v>
+        <v>0.5459839380625998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.09080890331934999</v>
+        <v>0.3186855317368091</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03087743226109219</v>
+        <v>0.2961332645006233</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_8.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-1.457073490363895</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.247247429609309</v>
+        <v>-118.0320357320889</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2640.136535775159</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1103019.741838459</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-384042199.2942793</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-123487653593.5235</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-37706094048626.02</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1.11451054748695e+16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-3.199411437318031e+18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-8.870505851159022e+20</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.368019366647879e+23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-6.124284088118738e+25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.548926486803022e+28</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-3.870708093008134e+30</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-9.597459691413668e+32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-2.364330462569333e+35</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-5.800232569771709e+37</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.420673875723271e+40</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-3.479879814599978e+42</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.5353822030659443</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6694704817216622</v>
+        <v>-87.36872871307891</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20176.85921009807</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3512589.035597774</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-653539685.0477116</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-130114487611.0524</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-26174077134219.26</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-5031299859810057</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.556933352849987e+17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.787088310242151e+20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.261324963636701e+22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.714549118847926e+24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.353386077674481e+26</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.364403502491543e+29</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.628474198082462e+31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.271443435883393e+33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-1.116591471145476e+34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-2.221869017957871e+37</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-4.335242344163066e+39</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.8498925758554317</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6843678232413823</v>
+        <v>-31.18156846200984</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1349.87725252742</v>
+      </c>
+      <c r="D4" t="n">
+        <v>341853.463078438</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59994291.44121444</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7281110614.552903</v>
+      </c>
+      <c r="G4" t="n">
+        <v>233873041123.2832</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37313237309631.16</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5411754849890603</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.710863242147125e+18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.867141701572645e+20</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.130536942148977e+23</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.960044668080298e+25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.471128640359576e+27</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.074259703040472e+30</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.604428066729231e+32</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.798915122265686e+34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.246514475765358e+36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.037131064880873e+39</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.7319290046682726</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6349686399606124</v>
+        <v>75.3818605567899</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10908.12193560369</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1620667.859927795</v>
+      </c>
+      <c r="E5" t="n">
+        <v>311479702.303252</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60482119214.23474</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11632673295958.27</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2085333643816289</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.534524334441647e+17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.446380634160076e+19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-7.204988064061499e+21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-7.567162227990087e+23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-6.103697675434696e+25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-6.155847599866813e+27</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1.045187410643813e+30</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.769631441534415e+32</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-3.066605805459536e+34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-5.527969730042409e+36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-1.023029532056823e+39</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>0.8083947436854791</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6068203705027657</v>
+        <v>2.183249626520853</v>
+      </c>
+      <c r="C6" t="n">
+        <v>381.6879857274982</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-832541.2274166268</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-116493356.8524698</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-12963587572.59439</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1283509898855.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-51349076417428.22</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7403994048593445</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.688915685553671e+18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.110027802980872e+20</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.58637358135539e+22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.028056220962629e+24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.720116887977094e+26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.551149769453476e+28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.247864863886433e+30</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.20063048603358e+32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8.663080535559414e+34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.431039978814897e+37</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.07452177043058129</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0504749455727569</v>
+        <v>23.85144316101695</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1285.997969130909</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-375448.2986015077</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-71682882.7741424</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-12975276697.70881</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1936684599065.908</v>
+      </c>
+      <c r="H7" t="n">
+        <v>224660916402574.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.503229985934054e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.015161218228667e+17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.598233848675557e+19</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.54528011476228e+21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.61194487951891e+23</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.524829058107766e+26</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.5625196062354e+28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.379161788745011e+30</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.37626028967378e+33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.35433481294752e+35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.83800328279533e+37</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>0.7880402694620865</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5459839380625998</v>
+        <v>33.15630625455258</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3251.451199909775</v>
+      </c>
+      <c r="D8" t="n">
+        <v>316977.3051119237</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54812770.75274159</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9092438070.376038</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1202749154108.343</v>
+      </c>
+      <c r="H8" t="n">
+        <v>99998210470707.09</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6050000647505865</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.001697568197367e+17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.090610444253959e+20</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.458558474062465e+22</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.934872331257101e+24</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.5780863108749e+26</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.354204383527995e+28</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.323008577955708e+30</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.820347003655905e+32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.600395215855917e+34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.364621110709848e+37</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>0.3186855317368091</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2961332645006233</v>
+        <v>-0.6632478641053362</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3129.090029480536</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-531901.5479532385</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-69358582.04662594</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-509817020.7830595</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8710408037.852352</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5799257964998.089</v>
+      </c>
+      <c r="I9" t="n">
+        <v>967383165127352.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.768837098679507e+17</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.745266858820073e+19</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.979244536371513e+21</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5.419303681579081e+23</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.980501791056124e+25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8.70161007906962e+27</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.06548357615379e+30</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.344504439955506e+32</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.818823748259924e+34</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.586285021750622e+36</v>
       </c>
     </row>
   </sheetData>
